--- a/biology/Médecine/Syndrome_de_Morel-Lavallée/Syndrome_de_Morel-Lavallée.xlsx
+++ b/biology/Médecine/Syndrome_de_Morel-Lavallée/Syndrome_de_Morel-Lavallée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_de_Morel-Lavall%C3%A9e</t>
+          <t>Syndrome_de_Morel-Lavallée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de Morel-Lavallée (SML) est caractérisé par un épanchement de liquide sérolymphatique consécutif à un traumatisme qui survient de manière tangentielle[1] sur un tissu fortement vascularisé. Ce traumatisme  provoque la désolidarisation des tissus cutanés et sous-cutanés par rapport aux couches musculaires et aux fascias situés en-dessous, sans rupture de la peau[2],[3]. À la suite de ce décollement cutané, se crée un espace dans lequel le liquide sérolymphatique s'accumule. La lésion se produit généralement autour de la cuisse ou du bassin, mais d'autres régions peuvent être concernées. L'épanchement est souvent dû à des chocs violents, tels que des chutes en pratiquant des sports comme le ski, le skateboard, le football, ou les sports de combat, entraînant des lésions des tissus sous-cutanés[1].
-Le syndrome de Morel-Lavallée a été décrit pour la première fois en 1863 par Victor-Auguste-François Morel-Lavallée[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de Morel-Lavallée (SML) est caractérisé par un épanchement de liquide sérolymphatique consécutif à un traumatisme qui survient de manière tangentielle sur un tissu fortement vascularisé. Ce traumatisme  provoque la désolidarisation des tissus cutanés et sous-cutanés par rapport aux couches musculaires et aux fascias situés en-dessous, sans rupture de la peau,. À la suite de ce décollement cutané, se crée un espace dans lequel le liquide sérolymphatique s'accumule. La lésion se produit généralement autour de la cuisse ou du bassin, mais d'autres régions peuvent être concernées. L'épanchement est souvent dû à des chocs violents, tels que des chutes en pratiquant des sports comme le ski, le skateboard, le football, ou les sports de combat, entraînant des lésions des tissus sous-cutanés.
+Le syndrome de Morel-Lavallée a été décrit pour la première fois en 1863 par Victor-Auguste-François Morel-Lavallée.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_de_Morel-Lavall%C3%A9e</t>
+          <t>Syndrome_de_Morel-Lavallée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le diagnostic est basé sur l'examen clinique et peut être étayé par l'imagerie médicale[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic est basé sur l'examen clinique et peut être étayé par l'imagerie médicale.
 .
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_de_Morel-Lavall%C3%A9e</t>
+          <t>Syndrome_de_Morel-Lavallée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Prise en charge</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prise en charge définitive est dictée par la taille, la localisation et l'ancienneté de la lésion et va du drainage percutané au débridement et nettoyage chirurgical. Les lésions chroniques peuvent entraîner l'apparition de pseudokystes et/ou de dystrophies[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prise en charge définitive est dictée par la taille, la localisation et l'ancienneté de la lésion et va du drainage percutané au débridement et nettoyage chirurgical. Les lésions chroniques peuvent entraîner l'apparition de pseudokystes et/ou de dystrophies.
 </t>
         </is>
       </c>
